--- a/data/lab4_drug-description.xlsx
+++ b/data/lab4_drug-description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apitt\Documents\UBC\MDS\532_DS_viz2\DSCI_532_Group_113_Overdose\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E2083C20-8EFB-4CB9-957C-674EE57D9448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4EACD76D-719D-46D8-B0AC-56ED6BC8FF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2200C2C8-EF8B-4EAE-95C9-AE9F1803E73F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Drug</t>
   </si>
@@ -436,6 +436,48 @@
   <si>
     <t>Hydromorphone is a pure opioid, a semi-synthetic hydrogenated ketone derivative of morphine that has been available clinically since 1920. Structurally, hydromorphone derived from morphine in the modification of the hydroxyl group in the carbon 6 to a carbonyl and the absence of a double bond between the carbon 7 and 8. Due to these modifications, it presents a very high potency and comparable side effect profile to the parent compound. Even though hydromorphone does not present a 6-hydroxyl group, it is categorized under the family of phenanthrenes and it is considered a chemical under the schedule II (medical purposes with high addiction potential).
 The first reported approved product containing hydromorphone in the form of hydromorphone hydrochloride was developed by Fresenius Kabi USA and FDA approved in 1984.</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/drugs/DB00327</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/drugs/DB00295</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/drugs/DB01192</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/drugs/DB00956</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/drugs/DB00193</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/drugs/DB00182</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/drugs/DB00333</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/drugs/DB00497</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/drugs/DB00898</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/drugs/DB12537</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/drugs/DB01452</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/drugs/DB00907</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/drugs/DB00813</t>
   </si>
 </sst>
 </file>
@@ -823,15 +865,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957C0A05-3243-4389-AFB0-D9459F1B2568}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -841,19 +883,25 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -863,8 +911,11 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -874,8 +925,11 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -885,8 +939,11 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -896,8 +953,11 @@
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -907,8 +967,11 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -918,8 +981,11 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -929,8 +995,11 @@
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -940,8 +1009,11 @@
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -951,8 +1023,11 @@
       <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -962,8 +1037,11 @@
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -973,8 +1051,11 @@
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -983,13 +1064,30 @@
       </c>
       <c r="C14" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{A89A7801-BFAF-4B02-A200-6DAB0CFE38B9}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{61976D2C-5EAB-41A3-A32D-09E3819D8E72}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{7675088B-C164-48AC-8770-6904FF677310}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{F9A8B212-D030-4A3A-B9A9-BBFF4C8D109D}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{98D8DCFE-0EFB-4C6E-AE71-84AC6B866B11}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{0A4F50CE-2167-449A-ABC1-07D346115080}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{AA86C5DF-21DE-427C-96E8-21D5CCA1CBA6}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{049EB423-23F4-4236-9FE7-3267D9117B8B}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{867C58FC-F39A-41CB-A8C3-D00DF062A567}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{A2B9A7E7-D9CE-4E02-B974-129222F414D2}"/>
+    <hyperlink ref="D6" r:id="rId11" xr:uid="{02FD1CCD-1287-4FE0-BE77-6A4B5E1696C3}"/>
+    <hyperlink ref="D5" r:id="rId12" xr:uid="{DFC49100-1331-4D33-9E4E-10A9EF4D5EF8}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{CD5DDFE5-5DD3-4EA7-AA73-DE73359EA2A0}"/>
+    <hyperlink ref="D2" r:id="rId14" xr:uid="{C2AE5D2F-E724-4A79-BEEE-4D52874A9D4A}"/>
+    <hyperlink ref="D3" r:id="rId15" xr:uid="{9C8AAAB8-8F3F-4198-BA06-ECF85E025123}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/data/lab4_drug-description.xlsx
+++ b/data/lab4_drug-description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apitt\Documents\UBC\MDS\532_DS_viz2\DSCI_532_Group_113_Overdose\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4EACD76D-719D-46D8-B0AC-56ED6BC8FF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D80CE25-41B1-4398-9591-8D4E8225C27F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2200C2C8-EF8B-4EAE-95C9-AE9F1803E73F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Drug</t>
   </si>
@@ -478,6 +478,15 @@
   </si>
   <si>
     <t>https://www.drugbank.ca/drugs/DB00813</t>
+  </si>
+  <si>
+    <t>Everything</t>
+  </si>
+  <si>
+    <t>No drug selected</t>
+  </si>
+  <si>
+    <t>https://www.drugbank.ca/assets/logo-pink-bd7264e3b993f48d681445728e394507ac912eb6e426e52c6d3230a78dae4bc6.svg</t>
   </si>
 </sst>
 </file>
@@ -865,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957C0A05-3243-4389-AFB0-D9459F1B2568}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,6 +1076,17 @@
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
